--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billf\Documents\Ecole\log6306\ECSMaintenabilityStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642E449-B8B8-4CEF-9D1A-5E98DC6673FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E22039-EFE3-4D44-A86B-9EA38B43DF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4185" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,19 +210,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Header" xfId="2" xr:uid="{D224F44F-BCF3-4B10-9280-CABC37951F45}"/>
@@ -542,7 +536,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,44 +554,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -605,42 +599,42 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8">
-        <v>490</v>
-      </c>
-      <c r="C2" s="8">
-        <v>490</v>
-      </c>
-      <c r="D2" s="8">
-        <v>490</v>
-      </c>
-      <c r="E2" s="8">
-        <v>490</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="B2" s="5">
+        <v>490</v>
+      </c>
+      <c r="C2" s="5">
+        <v>490</v>
+      </c>
+      <c r="D2" s="5">
+        <v>490</v>
+      </c>
+      <c r="E2" s="5">
+        <v>490</v>
+      </c>
+      <c r="F2" s="5">
         <v>253</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="5">
         <f t="shared" ref="G2:G7" si="0">AVERAGE(B2:F2)</f>
         <v>442.6</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="8">
-        <v>490</v>
-      </c>
-      <c r="J2" s="8">
-        <v>490</v>
-      </c>
-      <c r="K2" s="8">
-        <v>490</v>
-      </c>
-      <c r="L2" s="8">
-        <v>490</v>
-      </c>
-      <c r="M2" s="8">
-        <v>490</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="H2" s="8"/>
+      <c r="I2" s="5">
+        <v>490</v>
+      </c>
+      <c r="J2" s="5">
+        <v>490</v>
+      </c>
+      <c r="K2" s="5">
+        <v>490</v>
+      </c>
+      <c r="L2" s="5">
+        <v>490</v>
+      </c>
+      <c r="M2" s="5">
+        <v>490</v>
+      </c>
+      <c r="N2" s="5">
         <f t="shared" ref="N2:N7" si="1">AVERAGE(I2:M2)</f>
         <v>490</v>
       </c>
@@ -649,42 +643,42 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>358086</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>71324</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>1554265</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>157360</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>48129</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <f t="shared" si="0"/>
         <v>437832.8</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8">
+      <c r="H3" s="8"/>
+      <c r="I3" s="5">
         <v>233644</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>374859</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <v>47650</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="5">
         <v>51565</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="5">
         <v>251732</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="5">
         <f t="shared" si="1"/>
         <v>191890</v>
       </c>
@@ -693,42 +687,42 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="5">
         <v>82</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>155</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>61</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>30</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>68.2</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8">
+      <c r="H4" s="8"/>
+      <c r="I4" s="5">
         <v>201</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>186</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <v>204</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="5">
         <v>160</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="5">
         <v>88</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="5">
         <f t="shared" si="1"/>
         <v>167.8</v>
       </c>
@@ -737,42 +731,42 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>10073</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>46</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>720756</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>13662</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>2535</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <f t="shared" si="0"/>
         <v>149414.39999999999</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8">
+      <c r="H5" s="8"/>
+      <c r="I5" s="5">
         <v>9378</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>11072</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="5">
         <v>7511</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="5">
         <v>12058</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="5">
         <v>4205</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="5">
         <f t="shared" si="1"/>
         <v>8844.7999999999993</v>
       </c>
@@ -781,52 +775,52 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <f>B3/B2</f>
         <v>730.78775510204082</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <f>C3/C2</f>
         <v>145.55918367346939</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <f>D3/D2</f>
         <v>3171.9693877551022</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f>E3/E2</f>
         <v>321.14285714285717</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <f>F3/F2</f>
         <v>190.23320158102766</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>911.93847705089956</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9">
+      <c r="H6" s="8"/>
+      <c r="I6" s="6">
         <f>I3/I2</f>
         <v>476.82448979591834</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f>J3/J2</f>
         <v>765.01836734693882</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <f>K3/K2</f>
         <v>97.244897959183675</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <f>L3/L2</f>
         <v>105.23469387755102</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <f>M3/M2</f>
         <v>513.73877551020405</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="6">
         <f t="shared" si="1"/>
         <v>391.61224489795916</v>
       </c>
@@ -859,7 +853,7 @@
         <f t="shared" si="0"/>
         <v>0.1263987813800504</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="2">
         <f>I5/I3</f>
         <v>4.0137987707794767E-2</v>
@@ -886,9 +880,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:H7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
